--- a/medicine/Enfance/Deutscher_Jugendliteraturpreis/Deutscher_Jugendliteraturpreis.xlsx
+++ b/medicine/Enfance/Deutscher_Jugendliteraturpreis/Deutscher_Jugendliteraturpreis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Deutscher Jugendliteraturpreis (en allemand : prix allemand de littérature de jeunesse) est un prix littéraire allemand qui récompense tous les ans les meilleures œuvres internationales de la littérature jeunesse depuis 1956. Il s'agit du plus grand prix de la littérature jeunesse en Allemagne. Le but du prix est de proposer aux enfants une littérature de qualité qui les aide à grandir.
@@ -512,13 +524,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prix a été créé en 1956 par le ministère fédéral de la Famille. Au début, il ne comptait que deux catégories, le meilleur livre pour enfants et le meilleur livre pour jeunes. En plus de ces deux catégories, il y avait parfois un prix spécial.
-En 1967, deux nouvelles catégories sont ajoutées : le meilleur livre illustré et le meilleur livre de non-fiction. Ces catégories remplaceront le prix spécial[1].
+En 1967, deux nouvelles catégories sont ajoutées : le meilleur livre illustré et le meilleur livre de non-fiction. Ces catégories remplaceront le prix spécial.
 Jusqu'en 1981, le prix s'appelait le « Deutscher Jugendbuchpreis » (prix de jeunesse du livre allemand).
 Depuis 1991, un prix spécial est décerné pour les œuvres complètes d'un auteur, illustrateur ou traducteur allemand d'œuvres littéraires pour la jeunesse.
-Depuis 1996, les lauréats reçoivent en plus d'une somme d'argent une statuette en bronze qui représente Momo, le personnage du roman éponyme de Michael Ende[2].
+Depuis 1996, les lauréats reçoivent en plus d'une somme d'argent une statuette en bronze qui représente Momo, le personnage du roman éponyme de Michael Ende.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prix peut récompenser des livres de tous les horizons, à condition qu'ils aient été traduits en allemand.
 Le jury, composé de neuf jurés, décerne le prix dans les catégories des livres illustrés, des livres pour enfants, des livres pour jeunes, et des livres de non-fiction. En parallèle, un jury d'adolescents décerne le prix du jury des jeunes depuis 2003. Les jurys examinent les livres de l'année précédente et nomment six titres par catégorie. La liste des nommés est annoncée chaque année lors de la foire du livre de Leipzig. Les lauréats sont ensuite annoncés lors de la foire du livre de Francfort.
@@ -582,6 +598,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
